--- a/Data Cleaning and feature engineering report/complete_columns_statistics.xlsx
+++ b/Data Cleaning and feature engineering report/complete_columns_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\Downloads\Lending club analysis\Data Cleaning and feature engineering report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\OneDrive\Desktop\Academics\Predictive model to classify profitable borrowers\Data Cleaning and feature engineering report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33AC2F6-8279-4EC4-B749-CD7A11AC4FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16854F7C-772C-4945-84EC-AC57ADECE5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loan_amnt" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="131">
   <si>
     <t>count</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>Fully Paid</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>C4</t>
@@ -392,14 +386,114 @@
     <t>Develop another feature int_rate_bins which will be categorical variable</t>
   </si>
   <si>
-    <t>The variable term is significant to determine if the borrower will have problem with paying the monthly EMI</t>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Percentile distribution of the column</t>
+  </si>
+  <si>
+    <t>Buckets</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>1. Transform the data using box_cox transformation.
+2. Develop a categorical feature based on the %ile distribution of loan_amnt column
+3. This variable can be used both for clustering and prediction models</t>
+  </si>
+  <si>
+    <t>1. The column values has a right skewed distribution with multiple peaks.
+2. The column has some outliers.
+3. The 2 variables: loan amount and installment are not fully corelated.</t>
+  </si>
+  <si>
+    <t>1. Transform the data using box_cox transformation.
+2. Develop a categorical feature based on the %ile distribution of installment column
+3. This variable can be used both for clustering and prediction models</t>
+  </si>
+  <si>
+    <t>1. Although the data dictionary doesn't provide much insight about the loan grades, on exploring the variables it can be concluded that this variable has significance for classification and clustering.
+2. Major proportion of loans of grades E, F and G are been charged off</t>
+  </si>
+  <si>
+    <t>Analyst suggestion</t>
+  </si>
+  <si>
+    <t>Analyst  suggestion</t>
+  </si>
+  <si>
+    <t>B      Fully Paid     340172</t>
+  </si>
+  <si>
+    <t>C      Fully Paid     296037</t>
+  </si>
+  <si>
+    <t>A      Fully Paid     220889</t>
+  </si>
+  <si>
+    <t>D      Fully Paid     139899</t>
+  </si>
+  <si>
+    <t>C      Charged Off     85649</t>
+  </si>
+  <si>
+    <t>D      Charged Off     61054</t>
+  </si>
+  <si>
+    <t>E      Fully Paid      57615</t>
+  </si>
+  <si>
+    <t>B      Charged Off     52569</t>
+  </si>
+  <si>
+    <t>E      Charged Off     36035</t>
+  </si>
+  <si>
+    <t>F      Fully Paid      17567</t>
+  </si>
+  <si>
+    <t>A      Charged Off     14201</t>
+  </si>
+  <si>
+    <t>G      Fully Paid       4572</t>
+  </si>
+  <si>
+    <t>F      Charged Off     14491</t>
+  </si>
+  <si>
+    <t>G       Charged Off      4560</t>
+  </si>
+  <si>
+    <t>grade  loan_status  count</t>
+  </si>
+  <si>
+    <t>This column won't be dropped.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +544,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +572,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -568,6 +706,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -576,7 +751,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -602,6 +777,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -668,6 +851,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -677,30 +869,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,6 +889,101 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1385,6 +1651,280 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267997</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>252437</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F76F6DB-74E3-B53A-B542-F2D977BC1807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9640597" y="106679"/>
+          <a:ext cx="4251640" cy="1341121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>583183</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129409</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0124043-5AAD-C178-B9CB-2FAB8EB55EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9955783" y="1531620"/>
+          <a:ext cx="3813426" cy="1168308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147687</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>487077</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3FE4C9-9947-B6CA-296B-5C649AB69856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10129887" y="2758440"/>
+          <a:ext cx="3387390" cy="1951469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>351790</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E67B65-4B13-1E2C-62C8-D06FFEB32847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447019" y="4775779"/>
+          <a:ext cx="2934971" cy="1814402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578086</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A81FAFC-AFD4-FBD3-4A63-E795B15451D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9547860" y="158960"/>
+          <a:ext cx="3328906" cy="2220965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141554</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>566647</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DCB6EA-E107-3D89-9277-EF5A26ADC17F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9392234" y="2308860"/>
+          <a:ext cx="3473093" cy="2402802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72261D47-3112-4F9A-926A-7E017D5C0286}" name="Table2" displayName="Table2" ref="A1:J48" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:J48" xr:uid="{72261D47-3112-4F9A-926A-7E017D5C0286}"/>
@@ -1691,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:O11"/>
+      <selection activeCell="I9" sqref="I9:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="14.4"/>
@@ -1705,104 +2245,107 @@
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -1843,17 +2386,17 @@
       <c r="G8">
         <v>1076751</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="I8" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.4" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1872,15 +2415,15 @@
       <c r="G9">
         <v>14134.36980787573</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="I9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -1901,13 +2444,13 @@
       <c r="G10">
         <v>8669.0289731512785</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="47"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -1928,13 +2471,13 @@
       <c r="G11">
         <v>500</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -1955,6 +2498,13 @@
       <c r="G12">
         <v>500</v>
       </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -1975,8 +2525,15 @@
       <c r="G13">
         <v>7500</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.4" customHeight="1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1996,7 +2553,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="14.4" customHeight="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2015,6 +2572,12 @@
       <c r="G15">
         <v>20000</v>
       </c>
+      <c r="J15" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -2035,8 +2598,12 @@
       <c r="G16">
         <v>40000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2055,8 +2622,20 @@
       <c r="G17">
         <v>40000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2075,10 +2654,401 @@
       <c r="G18">
         <v>12000</v>
       </c>
+      <c r="J18" s="61">
+        <v>0</v>
+      </c>
+      <c r="K18" s="62">
+        <v>500</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="J19" s="65">
+        <v>5</v>
+      </c>
+      <c r="K19" s="66">
+        <v>3200</v>
+      </c>
+      <c r="L19" s="66">
+        <v>2700</v>
+      </c>
+      <c r="M19" s="73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="J20" s="65">
+        <v>10</v>
+      </c>
+      <c r="K20" s="66">
+        <v>5000</v>
+      </c>
+      <c r="L20" s="66">
+        <v>1800</v>
+      </c>
+      <c r="M20" s="73"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="J21" s="65">
+        <v>15</v>
+      </c>
+      <c r="K21" s="66">
+        <v>5650</v>
+      </c>
+      <c r="L21" s="66">
+        <v>650</v>
+      </c>
+      <c r="M21" s="73"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="J22" s="65">
+        <v>20</v>
+      </c>
+      <c r="K22" s="66">
+        <v>6500</v>
+      </c>
+      <c r="L22" s="66">
+        <v>850</v>
+      </c>
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="59"/>
+      <c r="J23" s="65">
+        <v>25</v>
+      </c>
+      <c r="K23" s="66">
+        <v>8000</v>
+      </c>
+      <c r="L23" s="66">
+        <v>1500</v>
+      </c>
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="59"/>
+      <c r="J24" s="65">
+        <v>30</v>
+      </c>
+      <c r="K24" s="66">
+        <v>8700</v>
+      </c>
+      <c r="L24" s="66">
+        <v>700</v>
+      </c>
+      <c r="M24" s="73"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="59"/>
+      <c r="J25" s="65">
+        <v>35</v>
+      </c>
+      <c r="K25" s="66">
+        <v>10000</v>
+      </c>
+      <c r="L25" s="66">
+        <v>1300</v>
+      </c>
+      <c r="M25" s="73"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="59"/>
+      <c r="J26" s="65">
+        <v>40</v>
+      </c>
+      <c r="K26" s="66">
+        <v>10000</v>
+      </c>
+      <c r="L26" s="66">
+        <v>0</v>
+      </c>
+      <c r="M26" s="73"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="59"/>
+      <c r="J27" s="65">
+        <v>45</v>
+      </c>
+      <c r="K27" s="66">
+        <v>11575</v>
+      </c>
+      <c r="L27" s="66">
+        <v>1575</v>
+      </c>
+      <c r="M27" s="73"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="59"/>
+      <c r="J28" s="65">
+        <v>50</v>
+      </c>
+      <c r="K28" s="66">
+        <v>12000</v>
+      </c>
+      <c r="L28" s="66">
+        <v>425</v>
+      </c>
+      <c r="M28" s="73"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="59"/>
+      <c r="J29" s="67">
+        <v>55</v>
+      </c>
+      <c r="K29" s="68">
+        <v>14000</v>
+      </c>
+      <c r="L29" s="68">
+        <v>2000</v>
+      </c>
+      <c r="M29" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="59"/>
+      <c r="J30" s="67">
+        <v>60</v>
+      </c>
+      <c r="K30" s="68">
+        <v>15000</v>
+      </c>
+      <c r="L30" s="68">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="74"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="59"/>
+      <c r="J31" s="67">
+        <v>65</v>
+      </c>
+      <c r="K31" s="68">
+        <v>16000</v>
+      </c>
+      <c r="L31" s="68">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="74"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="59"/>
+      <c r="J32" s="67">
+        <v>70</v>
+      </c>
+      <c r="K32" s="68">
+        <v>18000</v>
+      </c>
+      <c r="L32" s="68">
+        <v>2000</v>
+      </c>
+      <c r="M32" s="74"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="59"/>
+      <c r="J33" s="67">
+        <v>75</v>
+      </c>
+      <c r="K33" s="68">
+        <v>20000</v>
+      </c>
+      <c r="L33" s="68">
+        <v>2000</v>
+      </c>
+      <c r="M33" s="74"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="59"/>
+      <c r="J34" s="67">
+        <v>80</v>
+      </c>
+      <c r="K34" s="68">
+        <v>21000</v>
+      </c>
+      <c r="L34" s="68">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="74"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="59"/>
+      <c r="J35" s="67">
+        <v>85</v>
+      </c>
+      <c r="K35" s="68">
+        <v>24000</v>
+      </c>
+      <c r="L35" s="68">
+        <v>3000</v>
+      </c>
+      <c r="M35" s="74"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="59"/>
+      <c r="J36" s="69">
+        <v>90</v>
+      </c>
+      <c r="K36" s="70">
+        <v>28000</v>
+      </c>
+      <c r="L36" s="70">
+        <v>4000</v>
+      </c>
+      <c r="M36" s="75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="59"/>
+      <c r="J37" s="69">
+        <v>95</v>
+      </c>
+      <c r="K37" s="70">
+        <v>32875</v>
+      </c>
+      <c r="L37" s="70">
+        <v>4875</v>
+      </c>
+      <c r="M37" s="75"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="59"/>
+      <c r="J38" s="69">
+        <v>96</v>
+      </c>
+      <c r="K38" s="70">
+        <v>35000</v>
+      </c>
+      <c r="L38" s="70">
+        <v>2125</v>
+      </c>
+      <c r="M38" s="75"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="59"/>
+      <c r="J39" s="69">
+        <v>96.5</v>
+      </c>
+      <c r="K39" s="70">
+        <v>35000</v>
+      </c>
+      <c r="L39" s="70">
+        <v>0</v>
+      </c>
+      <c r="M39" s="75"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="59"/>
+      <c r="J40" s="69">
+        <v>97</v>
+      </c>
+      <c r="K40" s="70">
+        <v>35000</v>
+      </c>
+      <c r="L40" s="70">
+        <v>0</v>
+      </c>
+      <c r="M40" s="75"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="59"/>
+      <c r="J41" s="69">
+        <v>97.5</v>
+      </c>
+      <c r="K41" s="70">
+        <v>35000</v>
+      </c>
+      <c r="L41" s="70">
+        <v>0</v>
+      </c>
+      <c r="M41" s="75"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="59"/>
+      <c r="J42" s="69">
+        <v>98</v>
+      </c>
+      <c r="K42" s="70">
+        <v>35000</v>
+      </c>
+      <c r="L42" s="70">
+        <v>0</v>
+      </c>
+      <c r="M42" s="75"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="59"/>
+      <c r="J43" s="69">
+        <v>98.5</v>
+      </c>
+      <c r="K43" s="70">
+        <v>35000</v>
+      </c>
+      <c r="L43" s="70">
+        <v>0</v>
+      </c>
+      <c r="M43" s="75"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="59"/>
+      <c r="J44" s="69">
+        <v>99</v>
+      </c>
+      <c r="K44" s="70">
+        <v>35000</v>
+      </c>
+      <c r="L44" s="70">
+        <v>0</v>
+      </c>
+      <c r="M44" s="75"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="59"/>
+      <c r="J45" s="69">
+        <v>99.5</v>
+      </c>
+      <c r="K45" s="70">
+        <v>40000</v>
+      </c>
+      <c r="L45" s="70">
+        <v>5000</v>
+      </c>
+      <c r="M45" s="75"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="59"/>
+      <c r="J46" s="71">
+        <v>100</v>
+      </c>
+      <c r="K46" s="72">
+        <v>40000</v>
+      </c>
+      <c r="L46" s="72">
+        <v>0</v>
+      </c>
+      <c r="M46" s="76"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="59"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="59"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="59"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I9:O11"/>
+  <mergeCells count="7">
+    <mergeCell ref="I9:O13"/>
+    <mergeCell ref="J15:M16"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="I1:O1"/>
@@ -2104,62 +3074,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -2186,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>124074</v>
@@ -2203,7 +3173,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>551048</v>
@@ -2233,62 +3203,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -2551,62 +3521,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -2633,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>109232</v>
@@ -2650,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>412041</v>
@@ -2683,62 +3653,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -2765,7 +3735,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>10594</v>
@@ -2782,7 +3752,7 @@
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>38343</v>
@@ -2815,62 +3785,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -2944,62 +3914,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -3026,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>268559</v>
@@ -3043,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1076751</v>
@@ -3073,62 +4043,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
@@ -3155,7 +4125,7 @@
         <v>268559</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3172,7 +4142,7 @@
         <v>1076751</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3206,62 +4176,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -3288,7 +4258,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>165014</v>
@@ -3305,7 +4275,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>615307</v>
@@ -3335,62 +4305,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3421,62 +4391,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -3747,115 +4717,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="I8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="I8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
@@ -3876,15 +4846,15 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="I9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -3905,13 +4875,13 @@
       <c r="G10">
         <v>1076751</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -3932,13 +4902,13 @@
       <c r="G11">
         <v>14125.84973220364</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -4145,62 +5115,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -4227,7 +5197,7 @@
         <v>686</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1913</v>
@@ -4244,7 +5214,7 @@
         <v>735</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>7478</v>
@@ -4282,62 +5252,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -4608,62 +5578,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -4934,62 +5904,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -5260,62 +6230,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -5578,62 +6548,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -5904,62 +6874,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -6222,62 +7192,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -6304,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>158440</v>
@@ -6321,7 +7291,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>625570</v>
@@ -6359,62 +7329,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -6685,62 +7655,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -6997,7 +7967,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O14"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7011,110 +7981,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="45"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="45"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="45"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="44"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="I7" s="44"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
@@ -7135,13 +8105,13 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="39"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" customHeight="1">
       <c r="A9" t="s">
@@ -7202,15 +8172,15 @@
       <c r="G11">
         <v>8667.1517869593808</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="I11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -7231,15 +8201,15 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36"/>
+      <c r="I12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" customHeight="1">
       <c r="A13" t="s">
@@ -7260,13 +8230,13 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -7287,13 +8257,13 @@
       <c r="G14">
         <v>7500</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -7428,62 +8398,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -7754,62 +8724,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -8080,62 +9050,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -8406,62 +9376,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -8724,62 +9694,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -9042,62 +10012,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -9368,62 +10338,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -9694,62 +10664,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -10020,62 +10990,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -10346,62 +11316,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -10658,7 +11628,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O3"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10668,102 +11638,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="I6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -10771,17 +11741,17 @@
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -10789,17 +11759,17 @@
       <c r="C8" s="7">
         <v>857491</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -10810,7 +11780,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -10821,7 +11791,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>17</v>
@@ -10870,62 +11840,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -11163,7 +12133,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11171,7 +12141,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -11195,62 +12165,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -11277,7 +12247,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>262215</v>
@@ -11294,7 +12264,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>1057295</v>
@@ -11324,62 +12294,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -11617,7 +12587,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11625,7 +12595,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -11649,62 +12619,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -11942,7 +12912,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11950,7 +12920,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -11974,62 +12944,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -12056,7 +13026,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>268559</v>
@@ -12073,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>1076751</v>
@@ -12103,62 +13073,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -12185,7 +13155,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>267174</v>
@@ -12202,7 +13172,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>1071236</v>
@@ -12232,62 +13202,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -12314,7 +13284,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>235288</v>
@@ -12331,7 +13301,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>1076746</v>
@@ -12373,34 +13343,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="57.6">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12408,28 +13378,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12437,28 +13407,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12466,28 +13436,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12495,28 +13465,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12524,31 +13494,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12774,7 +13744,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:O15"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12794,101 +13764,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="I2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="I2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="45"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="45"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="45"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="44"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -12909,13 +13879,13 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -12936,13 +13906,13 @@
       <c r="G8">
         <v>1076751</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="39"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -13003,15 +13973,15 @@
       <c r="G11">
         <v>5.31</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="I11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" customHeight="1">
       <c r="A12" t="s">
@@ -13032,15 +14002,15 @@
       <c r="G12">
         <v>5.31</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="I12" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -13061,13 +14031,13 @@
       <c r="G13">
         <v>9.17</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -13088,13 +14058,13 @@
       <c r="G14">
         <v>12.23</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -13115,13 +14085,13 @@
       <c r="G15">
         <v>15.31</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -13162,20 +14132,20 @@
       <c r="G17">
         <v>30.99</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="47" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -13197,93 +14167,93 @@
       <c r="G18">
         <v>12.23</v>
       </c>
-      <c r="J18" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="41" t="s">
-        <v>62</v>
+      <c r="J18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="J19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="49">
+        <v>90</v>
+      </c>
+      <c r="K19">
         <v>344876</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19">
         <v>30657</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="19">
         <v>91.836403000000004</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N19" s="20">
         <v>8.1635969999999993</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="J20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="49">
+        <v>91</v>
+      </c>
+      <c r="K20">
         <v>450995</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20">
         <v>102966</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="19">
         <v>81.412771000000006</v>
       </c>
-      <c r="N20" s="51">
+      <c r="N20" s="20">
         <v>18.587229000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="J21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="49">
+        <v>92</v>
+      </c>
+      <c r="K21">
         <v>217454</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21">
         <v>91238</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="19">
         <v>70.443678000000006</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="20">
         <v>29.556322000000002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="J22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="49">
+        <v>93</v>
+      </c>
+      <c r="K22">
         <v>49682</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22">
         <v>31111</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="19">
         <v>61.492950999999998</v>
       </c>
-      <c r="N22" s="51">
+      <c r="N22" s="20">
         <v>38.507049000000002</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="J23" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K23" s="8">
         <v>13744</v>
@@ -13291,10 +14261,10 @@
       <c r="L23" s="8">
         <v>12587</v>
       </c>
-      <c r="M23" s="52">
+      <c r="M23" s="21">
         <v>52.197029999999998</v>
       </c>
-      <c r="N23" s="53">
+      <c r="N23" s="22">
         <v>47.802970000000002</v>
       </c>
     </row>
@@ -13314,90 +14284,122 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O3"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="I2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -13438,6 +14440,15 @@
       <c r="G8">
         <v>1076751</v>
       </c>
+      <c r="I8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -13458,6 +14469,15 @@
       <c r="G9">
         <v>431.32322617764021</v>
       </c>
+      <c r="I9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -13478,6 +14498,13 @@
       <c r="G10">
         <v>260.75956293548307</v>
       </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="47"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -13498,6 +14525,13 @@
       <c r="G11">
         <v>4.93</v>
       </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -13518,6 +14552,13 @@
       <c r="G12">
         <v>4.93</v>
       </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -13538,6 +14579,13 @@
       <c r="G13">
         <v>240.92</v>
       </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -13578,6 +14626,12 @@
       <c r="G15">
         <v>573.05999999999995</v>
       </c>
+      <c r="J15" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -13598,8 +14652,12 @@
       <c r="G16">
         <v>1719.83</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -13618,8 +14676,20 @@
       <c r="G17">
         <v>1719.83</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13638,147 +14708,610 @@
       <c r="G18">
         <v>368.26</v>
       </c>
+      <c r="J18" s="82">
+        <v>0</v>
+      </c>
+      <c r="K18" s="83">
+        <v>4.93</v>
+      </c>
+      <c r="L18" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="J19" s="84">
+        <v>5</v>
+      </c>
+      <c r="K19" s="85">
+        <v>108.73</v>
+      </c>
+      <c r="L19" s="85">
+        <v>103.8</v>
+      </c>
+      <c r="M19" s="78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="J20" s="84">
+        <v>10</v>
+      </c>
+      <c r="K20" s="85">
+        <v>157.59</v>
+      </c>
+      <c r="L20" s="85">
+        <v>48.86</v>
+      </c>
+      <c r="M20" s="78"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="J21" s="84">
+        <v>15</v>
+      </c>
+      <c r="K21" s="85">
+        <v>186.61</v>
+      </c>
+      <c r="L21" s="85">
+        <v>29.02</v>
+      </c>
+      <c r="M21" s="78"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="J22" s="84">
+        <v>20</v>
+      </c>
+      <c r="K22" s="85">
+        <v>216.83</v>
+      </c>
+      <c r="L22" s="85">
+        <v>30.22</v>
+      </c>
+      <c r="M22" s="78"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="J23" s="84">
+        <v>25</v>
+      </c>
+      <c r="K23" s="85">
+        <v>248.48</v>
+      </c>
+      <c r="L23" s="85">
+        <v>31.65</v>
+      </c>
+      <c r="M23" s="78"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="J24" s="84">
+        <v>30</v>
+      </c>
+      <c r="K24" s="85">
+        <v>273.3</v>
+      </c>
+      <c r="L24" s="85">
+        <v>24.82</v>
+      </c>
+      <c r="M24" s="78"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="J25" s="84">
+        <v>35</v>
+      </c>
+      <c r="K25" s="85">
+        <v>301.68</v>
+      </c>
+      <c r="L25" s="85">
+        <v>28.38</v>
+      </c>
+      <c r="M25" s="78"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26" s="84">
+        <v>40</v>
+      </c>
+      <c r="K26" s="85">
+        <v>324.61</v>
+      </c>
+      <c r="L26" s="85">
+        <v>22.93</v>
+      </c>
+      <c r="M26" s="78"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="J27" s="84">
+        <v>45</v>
+      </c>
+      <c r="K27" s="85">
+        <v>344.95</v>
+      </c>
+      <c r="L27" s="85">
+        <v>20.34</v>
+      </c>
+      <c r="M27" s="78"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="J28" s="84">
+        <v>50</v>
+      </c>
+      <c r="K28" s="85">
+        <v>375.43</v>
+      </c>
+      <c r="L28" s="85">
+        <v>30.48</v>
+      </c>
+      <c r="M28" s="78"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="J29" s="84">
+        <v>55</v>
+      </c>
+      <c r="K29" s="85">
+        <v>405.66</v>
+      </c>
+      <c r="L29" s="85">
+        <v>30.23</v>
+      </c>
+      <c r="M29" s="78"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="J30" s="86">
+        <v>60</v>
+      </c>
+      <c r="K30" s="87">
+        <v>451.73</v>
+      </c>
+      <c r="L30" s="87">
+        <v>46.07</v>
+      </c>
+      <c r="M30" s="79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="J31" s="86">
+        <v>65</v>
+      </c>
+      <c r="K31" s="87">
+        <v>487.49</v>
+      </c>
+      <c r="L31" s="87">
+        <v>35.76</v>
+      </c>
+      <c r="M31" s="79"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="J32" s="86">
+        <v>70</v>
+      </c>
+      <c r="K32" s="87">
+        <v>526.76</v>
+      </c>
+      <c r="L32" s="87">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="M32" s="79"/>
+    </row>
+    <row r="33" spans="10:13">
+      <c r="J33" s="86">
+        <v>75</v>
+      </c>
+      <c r="K33" s="87">
+        <v>580.73</v>
+      </c>
+      <c r="L33" s="87">
+        <v>53.97</v>
+      </c>
+      <c r="M33" s="79"/>
+    </row>
+    <row r="34" spans="10:13">
+      <c r="J34" s="86">
+        <v>80</v>
+      </c>
+      <c r="K34" s="87">
+        <v>640.65</v>
+      </c>
+      <c r="L34" s="87">
+        <v>59.92</v>
+      </c>
+      <c r="M34" s="79"/>
+    </row>
+    <row r="35" spans="10:13">
+      <c r="J35" s="86">
+        <v>85</v>
+      </c>
+      <c r="K35" s="87">
+        <v>707.7</v>
+      </c>
+      <c r="L35" s="87">
+        <v>67.05</v>
+      </c>
+      <c r="M35" s="79"/>
+    </row>
+    <row r="36" spans="10:13">
+      <c r="J36" s="88">
+        <v>90</v>
+      </c>
+      <c r="K36" s="89">
+        <v>807.92</v>
+      </c>
+      <c r="L36" s="89">
+        <v>100.22</v>
+      </c>
+      <c r="M36" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13">
+      <c r="J37" s="88">
+        <v>95</v>
+      </c>
+      <c r="K37" s="89">
+        <v>963.66</v>
+      </c>
+      <c r="L37" s="89">
+        <v>155.74</v>
+      </c>
+      <c r="M37" s="80"/>
+    </row>
+    <row r="38" spans="10:13">
+      <c r="J38" s="88">
+        <v>96</v>
+      </c>
+      <c r="K38" s="89">
+        <v>1012.39</v>
+      </c>
+      <c r="L38" s="89">
+        <v>48.73</v>
+      </c>
+      <c r="M38" s="80"/>
+    </row>
+    <row r="39" spans="10:13">
+      <c r="J39" s="88">
+        <v>96.5</v>
+      </c>
+      <c r="K39" s="89">
+        <v>1048.06185</v>
+      </c>
+      <c r="L39" s="89">
+        <v>35.671849999999999</v>
+      </c>
+      <c r="M39" s="80"/>
+    </row>
+    <row r="40" spans="10:13">
+      <c r="J40" s="88">
+        <v>97</v>
+      </c>
+      <c r="K40" s="89">
+        <v>1085.78</v>
+      </c>
+      <c r="L40" s="89">
+        <v>37.718150000000001</v>
+      </c>
+      <c r="M40" s="80"/>
+    </row>
+    <row r="41" spans="10:13">
+      <c r="J41" s="88">
+        <v>97.5</v>
+      </c>
+      <c r="K41" s="89">
+        <v>1115.5999999999999</v>
+      </c>
+      <c r="L41" s="89">
+        <v>29.82</v>
+      </c>
+      <c r="M41" s="80"/>
+    </row>
+    <row r="42" spans="10:13">
+      <c r="J42" s="88">
+        <v>98</v>
+      </c>
+      <c r="K42" s="89">
+        <v>1153.67</v>
+      </c>
+      <c r="L42" s="89">
+        <v>38.07</v>
+      </c>
+      <c r="M42" s="80"/>
+    </row>
+    <row r="43" spans="10:13">
+      <c r="J43" s="88">
+        <v>98.5</v>
+      </c>
+      <c r="K43" s="89">
+        <v>1185.37095</v>
+      </c>
+      <c r="L43" s="89">
+        <v>31.700949999999999</v>
+      </c>
+      <c r="M43" s="80"/>
+    </row>
+    <row r="44" spans="10:13">
+      <c r="J44" s="88">
+        <v>99</v>
+      </c>
+      <c r="K44" s="89">
+        <v>1221.5</v>
+      </c>
+      <c r="L44" s="89">
+        <v>36.129049999999999</v>
+      </c>
+      <c r="M44" s="80"/>
+    </row>
+    <row r="45" spans="10:13">
+      <c r="J45" s="88">
+        <v>99.5</v>
+      </c>
+      <c r="K45" s="89">
+        <v>1266.3900000000001</v>
+      </c>
+      <c r="L45" s="89">
+        <v>44.89</v>
+      </c>
+      <c r="M45" s="80"/>
+    </row>
+    <row r="46" spans="10:13">
+      <c r="J46" s="90">
+        <v>100</v>
+      </c>
+      <c r="K46" s="91">
+        <v>1719.83</v>
+      </c>
+      <c r="L46" s="91">
+        <v>453.44</v>
+      </c>
+      <c r="M46" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="M19:M29"/>
+    <mergeCell ref="M30:M35"/>
+    <mergeCell ref="M36:M46"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O6"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:O13"/>
+    <mergeCell ref="J15:M16"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:G5"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G5"/>
+      <selection activeCell="I9" sqref="I9:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
+      <c r="A7" s="94" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8">
-        <v>268559</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>85649</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
+      <c r="A8" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9">
-        <v>1076751</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>340172</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
+      <c r="A9" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="I9:O10"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O6"/>
+    <mergeCell ref="I8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13786,7 +15319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
@@ -13796,62 +15329,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -13878,7 +15411,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>18546</v>
@@ -13895,7 +15428,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>71203</v>

--- a/Data Cleaning and feature engineering report/complete_columns_statistics.xlsx
+++ b/Data Cleaning and feature engineering report/complete_columns_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\OneDrive\Desktop\Academics\Predictive model to classify profitable borrowers\Data Cleaning and feature engineering report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16854F7C-772C-4945-84EC-AC57ADECE5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15488889-AD16-4173-AF1D-ABCAB4DC92A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loan_amnt" sheetId="2" r:id="rId1"/>
@@ -486,7 +486,7 @@
     <t>grade  loan_status  count</t>
   </si>
   <si>
-    <t>This column won't be dropped.</t>
+    <t>The grade of loans can turn out to be a useful column both for clustering and classification</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -785,32 +785,105 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,28 +919,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,29 +963,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,66 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2251,101 +2241,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="I2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -2386,15 +2376,15 @@
       <c r="G8">
         <v>1076751</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" customHeight="1">
       <c r="A9" t="s">
@@ -2415,15 +2405,15 @@
       <c r="G9">
         <v>14134.36980787573</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -2444,13 +2434,13 @@
       <c r="G10">
         <v>8669.0289731512785</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="47"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -2471,13 +2461,13 @@
       <c r="G11">
         <v>500</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="47"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -2498,13 +2488,13 @@
       <c r="G12">
         <v>500</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="47"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -2525,13 +2515,13 @@
       <c r="G13">
         <v>7500</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" customHeight="1">
       <c r="A14" t="s">
@@ -2572,12 +2562,12 @@
       <c r="G15">
         <v>20000</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -2598,10 +2588,10 @@
       <c r="G16">
         <v>40000</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
@@ -2654,396 +2644,396 @@
       <c r="G18">
         <v>12000</v>
       </c>
-      <c r="J18" s="61">
-        <v>0</v>
-      </c>
-      <c r="K18" s="62">
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
         <v>500</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="63" t="s">
+      <c r="M18" s="26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="J19" s="65">
+      <c r="J19" s="28">
         <v>5</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="29">
         <v>3200</v>
       </c>
-      <c r="L19" s="66">
+      <c r="L19" s="29">
         <v>2700</v>
       </c>
-      <c r="M19" s="73" t="s">
+      <c r="M19" s="36" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="J20" s="65">
+      <c r="J20" s="28">
         <v>10</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="29">
         <v>5000</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="29">
         <v>1800</v>
       </c>
-      <c r="M20" s="73"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="J21" s="65">
+      <c r="J21" s="28">
         <v>15</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="29">
         <v>5650</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="29">
         <v>650</v>
       </c>
-      <c r="M21" s="73"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="J22" s="65">
+      <c r="J22" s="28">
         <v>20</v>
       </c>
-      <c r="K22" s="66">
+      <c r="K22" s="29">
         <v>6500</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="29">
         <v>850</v>
       </c>
-      <c r="M22" s="73"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="59"/>
-      <c r="J23" s="65">
+      <c r="A23" s="23"/>
+      <c r="J23" s="28">
         <v>25</v>
       </c>
-      <c r="K23" s="66">
+      <c r="K23" s="29">
         <v>8000</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="29">
         <v>1500</v>
       </c>
-      <c r="M23" s="73"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="59"/>
-      <c r="J24" s="65">
+      <c r="A24" s="23"/>
+      <c r="J24" s="28">
         <v>30</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K24" s="29">
         <v>8700</v>
       </c>
-      <c r="L24" s="66">
+      <c r="L24" s="29">
         <v>700</v>
       </c>
-      <c r="M24" s="73"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="59"/>
-      <c r="J25" s="65">
+      <c r="A25" s="23"/>
+      <c r="J25" s="28">
         <v>35</v>
       </c>
-      <c r="K25" s="66">
+      <c r="K25" s="29">
         <v>10000</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="29">
         <v>1300</v>
       </c>
-      <c r="M25" s="73"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="59"/>
-      <c r="J26" s="65">
+      <c r="A26" s="23"/>
+      <c r="J26" s="28">
         <v>40</v>
       </c>
-      <c r="K26" s="66">
+      <c r="K26" s="29">
         <v>10000</v>
       </c>
-      <c r="L26" s="66">
-        <v>0</v>
-      </c>
-      <c r="M26" s="73"/>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="59"/>
-      <c r="J27" s="65">
+      <c r="A27" s="23"/>
+      <c r="J27" s="28">
         <v>45</v>
       </c>
-      <c r="K27" s="66">
+      <c r="K27" s="29">
         <v>11575</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="29">
         <v>1575</v>
       </c>
-      <c r="M27" s="73"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="59"/>
-      <c r="J28" s="65">
+      <c r="A28" s="23"/>
+      <c r="J28" s="28">
         <v>50</v>
       </c>
-      <c r="K28" s="66">
+      <c r="K28" s="29">
         <v>12000</v>
       </c>
-      <c r="L28" s="66">
+      <c r="L28" s="29">
         <v>425</v>
       </c>
-      <c r="M28" s="73"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="59"/>
-      <c r="J29" s="67">
+      <c r="A29" s="23"/>
+      <c r="J29" s="30">
         <v>55</v>
       </c>
-      <c r="K29" s="68">
+      <c r="K29" s="31">
         <v>14000</v>
       </c>
-      <c r="L29" s="68">
+      <c r="L29" s="31">
         <v>2000</v>
       </c>
-      <c r="M29" s="74" t="s">
+      <c r="M29" s="37" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="59"/>
-      <c r="J30" s="67">
+      <c r="A30" s="23"/>
+      <c r="J30" s="30">
         <v>60</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="31">
         <v>15000</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="31">
         <v>1000</v>
       </c>
-      <c r="M30" s="74"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="59"/>
-      <c r="J31" s="67">
+      <c r="A31" s="23"/>
+      <c r="J31" s="30">
         <v>65</v>
       </c>
-      <c r="K31" s="68">
+      <c r="K31" s="31">
         <v>16000</v>
       </c>
-      <c r="L31" s="68">
+      <c r="L31" s="31">
         <v>1000</v>
       </c>
-      <c r="M31" s="74"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="59"/>
-      <c r="J32" s="67">
+      <c r="A32" s="23"/>
+      <c r="J32" s="30">
         <v>70</v>
       </c>
-      <c r="K32" s="68">
+      <c r="K32" s="31">
         <v>18000</v>
       </c>
-      <c r="L32" s="68">
+      <c r="L32" s="31">
         <v>2000</v>
       </c>
-      <c r="M32" s="74"/>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="59"/>
-      <c r="J33" s="67">
+      <c r="A33" s="23"/>
+      <c r="J33" s="30">
         <v>75</v>
       </c>
-      <c r="K33" s="68">
+      <c r="K33" s="31">
         <v>20000</v>
       </c>
-      <c r="L33" s="68">
+      <c r="L33" s="31">
         <v>2000</v>
       </c>
-      <c r="M33" s="74"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="59"/>
-      <c r="J34" s="67">
+      <c r="A34" s="23"/>
+      <c r="J34" s="30">
         <v>80</v>
       </c>
-      <c r="K34" s="68">
+      <c r="K34" s="31">
         <v>21000</v>
       </c>
-      <c r="L34" s="68">
+      <c r="L34" s="31">
         <v>1000</v>
       </c>
-      <c r="M34" s="74"/>
+      <c r="M34" s="37"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="59"/>
-      <c r="J35" s="67">
+      <c r="A35" s="23"/>
+      <c r="J35" s="30">
         <v>85</v>
       </c>
-      <c r="K35" s="68">
+      <c r="K35" s="31">
         <v>24000</v>
       </c>
-      <c r="L35" s="68">
+      <c r="L35" s="31">
         <v>3000</v>
       </c>
-      <c r="M35" s="74"/>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="59"/>
-      <c r="J36" s="69">
+      <c r="A36" s="23"/>
+      <c r="J36" s="32">
         <v>90</v>
       </c>
-      <c r="K36" s="70">
+      <c r="K36" s="33">
         <v>28000</v>
       </c>
-      <c r="L36" s="70">
+      <c r="L36" s="33">
         <v>4000</v>
       </c>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="59"/>
-      <c r="J37" s="69">
+      <c r="A37" s="23"/>
+      <c r="J37" s="32">
         <v>95</v>
       </c>
-      <c r="K37" s="70">
+      <c r="K37" s="33">
         <v>32875</v>
       </c>
-      <c r="L37" s="70">
+      <c r="L37" s="33">
         <v>4875</v>
       </c>
-      <c r="M37" s="75"/>
+      <c r="M37" s="38"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="59"/>
-      <c r="J38" s="69">
+      <c r="A38" s="23"/>
+      <c r="J38" s="32">
         <v>96</v>
       </c>
-      <c r="K38" s="70">
+      <c r="K38" s="33">
         <v>35000</v>
       </c>
-      <c r="L38" s="70">
+      <c r="L38" s="33">
         <v>2125</v>
       </c>
-      <c r="M38" s="75"/>
+      <c r="M38" s="38"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="59"/>
-      <c r="J39" s="69">
+      <c r="A39" s="23"/>
+      <c r="J39" s="32">
         <v>96.5</v>
       </c>
-      <c r="K39" s="70">
+      <c r="K39" s="33">
         <v>35000</v>
       </c>
-      <c r="L39" s="70">
-        <v>0</v>
-      </c>
-      <c r="M39" s="75"/>
+      <c r="L39" s="33">
+        <v>0</v>
+      </c>
+      <c r="M39" s="38"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="59"/>
-      <c r="J40" s="69">
+      <c r="A40" s="23"/>
+      <c r="J40" s="32">
         <v>97</v>
       </c>
-      <c r="K40" s="70">
+      <c r="K40" s="33">
         <v>35000</v>
       </c>
-      <c r="L40" s="70">
-        <v>0</v>
-      </c>
-      <c r="M40" s="75"/>
+      <c r="L40" s="33">
+        <v>0</v>
+      </c>
+      <c r="M40" s="38"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="59"/>
-      <c r="J41" s="69">
+      <c r="A41" s="23"/>
+      <c r="J41" s="32">
         <v>97.5</v>
       </c>
-      <c r="K41" s="70">
+      <c r="K41" s="33">
         <v>35000</v>
       </c>
-      <c r="L41" s="70">
-        <v>0</v>
-      </c>
-      <c r="M41" s="75"/>
+      <c r="L41" s="33">
+        <v>0</v>
+      </c>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="59"/>
-      <c r="J42" s="69">
+      <c r="A42" s="23"/>
+      <c r="J42" s="32">
         <v>98</v>
       </c>
-      <c r="K42" s="70">
+      <c r="K42" s="33">
         <v>35000</v>
       </c>
-      <c r="L42" s="70">
-        <v>0</v>
-      </c>
-      <c r="M42" s="75"/>
+      <c r="L42" s="33">
+        <v>0</v>
+      </c>
+      <c r="M42" s="38"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="59"/>
-      <c r="J43" s="69">
+      <c r="A43" s="23"/>
+      <c r="J43" s="32">
         <v>98.5</v>
       </c>
-      <c r="K43" s="70">
+      <c r="K43" s="33">
         <v>35000</v>
       </c>
-      <c r="L43" s="70">
-        <v>0</v>
-      </c>
-      <c r="M43" s="75"/>
+      <c r="L43" s="33">
+        <v>0</v>
+      </c>
+      <c r="M43" s="38"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="59"/>
-      <c r="J44" s="69">
+      <c r="A44" s="23"/>
+      <c r="J44" s="32">
         <v>99</v>
       </c>
-      <c r="K44" s="70">
+      <c r="K44" s="33">
         <v>35000</v>
       </c>
-      <c r="L44" s="70">
-        <v>0</v>
-      </c>
-      <c r="M44" s="75"/>
+      <c r="L44" s="33">
+        <v>0</v>
+      </c>
+      <c r="M44" s="38"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="59"/>
-      <c r="J45" s="69">
+      <c r="A45" s="23"/>
+      <c r="J45" s="32">
         <v>99.5</v>
       </c>
-      <c r="K45" s="70">
+      <c r="K45" s="33">
         <v>40000</v>
       </c>
-      <c r="L45" s="70">
+      <c r="L45" s="33">
         <v>5000</v>
       </c>
-      <c r="M45" s="75"/>
+      <c r="M45" s="38"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="59"/>
-      <c r="J46" s="71">
+      <c r="A46" s="23"/>
+      <c r="J46" s="34">
         <v>100</v>
       </c>
-      <c r="K46" s="72">
+      <c r="K46" s="35">
         <v>40000</v>
       </c>
-      <c r="L46" s="72">
-        <v>0</v>
-      </c>
-      <c r="M46" s="76"/>
+      <c r="L46" s="35">
+        <v>0</v>
+      </c>
+      <c r="M46" s="39"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="59"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="59"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="59"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="59"/>
+      <c r="A50" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3074,62 +3064,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -3203,62 +3193,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -3521,62 +3511,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -3653,62 +3643,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -3785,62 +3775,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -3914,62 +3904,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -4043,62 +4033,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
@@ -4176,62 +4166,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -4305,62 +4295,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4391,62 +4381,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -4717,115 +4707,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="I2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
@@ -4846,15 +4836,15 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -4875,13 +4865,13 @@
       <c r="G10">
         <v>1076751</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -4902,13 +4892,13 @@
       <c r="G11">
         <v>14125.84973220364</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -5115,62 +5105,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -5252,62 +5242,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -5578,62 +5568,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -5904,62 +5894,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -6230,62 +6220,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -6548,62 +6538,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -6874,62 +6864,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -7192,62 +7182,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -7329,62 +7319,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -7655,62 +7645,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -7981,110 +7971,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="I2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
@@ -8105,13 +8095,13 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" customHeight="1">
       <c r="A9" t="s">
@@ -8172,15 +8162,15 @@
       <c r="G11">
         <v>8667.1517869593808</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -8201,15 +8191,15 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" customHeight="1">
       <c r="A13" t="s">
@@ -8230,13 +8220,13 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -8257,13 +8247,13 @@
       <c r="G14">
         <v>7500</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -8398,62 +8388,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -8724,62 +8714,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -9050,62 +9040,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -9376,62 +9366,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -9694,62 +9684,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -10012,62 +10002,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -10338,62 +10328,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -10664,62 +10654,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -10990,62 +10980,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -11316,62 +11306,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -11638,98 +11628,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="I2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="41" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="I5" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="77"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="11" t="s">
@@ -11741,13 +11731,13 @@
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
@@ -11759,13 +11749,13 @@
       <c r="C8" s="7">
         <v>857491</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
@@ -11840,62 +11830,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -12165,62 +12155,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -12294,62 +12284,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -12619,62 +12609,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -12944,62 +12934,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -13073,62 +13063,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -13202,62 +13192,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
@@ -13764,101 +13754,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="I2" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -13879,13 +13869,13 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -13906,13 +13896,13 @@
       <c r="G8">
         <v>1076751</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -13973,15 +13963,15 @@
       <c r="G11">
         <v>5.31</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" customHeight="1">
       <c r="A12" t="s">
@@ -14002,15 +13992,15 @@
       <c r="G12">
         <v>5.31</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -14031,13 +14021,13 @@
       <c r="G13">
         <v>9.17</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -14058,13 +14048,13 @@
       <c r="G14">
         <v>12.23</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -14085,13 +14075,13 @@
       <c r="G15">
         <v>15.31</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -14305,101 +14295,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="I2" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -14440,15 +14430,15 @@
       <c r="G8">
         <v>1076751</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -14469,15 +14459,15 @@
       <c r="G9">
         <v>431.32322617764021</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -14498,13 +14488,13 @@
       <c r="G10">
         <v>260.75956293548307</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="47"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -14525,13 +14515,13 @@
       <c r="G11">
         <v>4.93</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="47"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -14552,13 +14542,13 @@
       <c r="G12">
         <v>4.93</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="47"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -14579,13 +14569,13 @@
       <c r="G13">
         <v>240.92</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -14626,12 +14616,12 @@
       <c r="G15">
         <v>573.05999999999995</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -14652,10 +14642,10 @@
       <c r="G16">
         <v>1719.83</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
@@ -14708,363 +14698,365 @@
       <c r="G18">
         <v>368.26</v>
       </c>
-      <c r="J18" s="82">
-        <v>0</v>
-      </c>
-      <c r="K18" s="83">
+      <c r="J18" s="40">
+        <v>0</v>
+      </c>
+      <c r="K18" s="41">
         <v>4.93</v>
       </c>
-      <c r="L18" s="83" t="s">
+      <c r="L18" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="77" t="s">
+      <c r="M18" s="26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="J19" s="84">
+      <c r="J19" s="42">
         <v>5</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="43">
         <v>108.73</v>
       </c>
-      <c r="L19" s="85">
+      <c r="L19" s="43">
         <v>103.8</v>
       </c>
-      <c r="M19" s="78" t="s">
+      <c r="M19" s="91" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="J20" s="84">
+      <c r="J20" s="42">
         <v>10</v>
       </c>
-      <c r="K20" s="85">
+      <c r="K20" s="43">
         <v>157.59</v>
       </c>
-      <c r="L20" s="85">
+      <c r="L20" s="43">
         <v>48.86</v>
       </c>
-      <c r="M20" s="78"/>
+      <c r="M20" s="91"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="J21" s="84">
+      <c r="J21" s="42">
         <v>15</v>
       </c>
-      <c r="K21" s="85">
+      <c r="K21" s="43">
         <v>186.61</v>
       </c>
-      <c r="L21" s="85">
+      <c r="L21" s="43">
         <v>29.02</v>
       </c>
-      <c r="M21" s="78"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="J22" s="84">
+      <c r="J22" s="42">
         <v>20</v>
       </c>
-      <c r="K22" s="85">
+      <c r="K22" s="43">
         <v>216.83</v>
       </c>
-      <c r="L22" s="85">
+      <c r="L22" s="43">
         <v>30.22</v>
       </c>
-      <c r="M22" s="78"/>
+      <c r="M22" s="91"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="J23" s="84">
+      <c r="J23" s="42">
         <v>25</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="43">
         <v>248.48</v>
       </c>
-      <c r="L23" s="85">
+      <c r="L23" s="43">
         <v>31.65</v>
       </c>
-      <c r="M23" s="78"/>
+      <c r="M23" s="91"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="J24" s="84">
+      <c r="J24" s="42">
         <v>30</v>
       </c>
-      <c r="K24" s="85">
+      <c r="K24" s="43">
         <v>273.3</v>
       </c>
-      <c r="L24" s="85">
+      <c r="L24" s="43">
         <v>24.82</v>
       </c>
-      <c r="M24" s="78"/>
+      <c r="M24" s="91"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="J25" s="84">
+      <c r="J25" s="42">
         <v>35</v>
       </c>
-      <c r="K25" s="85">
+      <c r="K25" s="43">
         <v>301.68</v>
       </c>
-      <c r="L25" s="85">
+      <c r="L25" s="43">
         <v>28.38</v>
       </c>
-      <c r="M25" s="78"/>
+      <c r="M25" s="91"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="J26" s="84">
+      <c r="J26" s="42">
         <v>40</v>
       </c>
-      <c r="K26" s="85">
+      <c r="K26" s="43">
         <v>324.61</v>
       </c>
-      <c r="L26" s="85">
+      <c r="L26" s="43">
         <v>22.93</v>
       </c>
-      <c r="M26" s="78"/>
+      <c r="M26" s="91"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="J27" s="84">
+      <c r="J27" s="42">
         <v>45</v>
       </c>
-      <c r="K27" s="85">
+      <c r="K27" s="43">
         <v>344.95</v>
       </c>
-      <c r="L27" s="85">
+      <c r="L27" s="43">
         <v>20.34</v>
       </c>
-      <c r="M27" s="78"/>
+      <c r="M27" s="91"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="J28" s="84">
+      <c r="J28" s="42">
         <v>50</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="43">
         <v>375.43</v>
       </c>
-      <c r="L28" s="85">
+      <c r="L28" s="43">
         <v>30.48</v>
       </c>
-      <c r="M28" s="78"/>
+      <c r="M28" s="91"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="J29" s="84">
+      <c r="J29" s="42">
         <v>55</v>
       </c>
-      <c r="K29" s="85">
+      <c r="K29" s="43">
         <v>405.66</v>
       </c>
-      <c r="L29" s="85">
+      <c r="L29" s="43">
         <v>30.23</v>
       </c>
-      <c r="M29" s="78"/>
+      <c r="M29" s="91"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="J30" s="86">
+      <c r="J30" s="44">
         <v>60</v>
       </c>
-      <c r="K30" s="87">
+      <c r="K30" s="45">
         <v>451.73</v>
       </c>
-      <c r="L30" s="87">
+      <c r="L30" s="45">
         <v>46.07</v>
       </c>
-      <c r="M30" s="79" t="s">
+      <c r="M30" s="92" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="J31" s="86">
+      <c r="J31" s="44">
         <v>65</v>
       </c>
-      <c r="K31" s="87">
+      <c r="K31" s="45">
         <v>487.49</v>
       </c>
-      <c r="L31" s="87">
+      <c r="L31" s="45">
         <v>35.76</v>
       </c>
-      <c r="M31" s="79"/>
+      <c r="M31" s="92"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="J32" s="86">
+      <c r="J32" s="44">
         <v>70</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="45">
         <v>526.76</v>
       </c>
-      <c r="L32" s="87">
+      <c r="L32" s="45">
         <v>39.270000000000003</v>
       </c>
-      <c r="M32" s="79"/>
+      <c r="M32" s="92"/>
     </row>
     <row r="33" spans="10:13">
-      <c r="J33" s="86">
+      <c r="J33" s="44">
         <v>75</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="45">
         <v>580.73</v>
       </c>
-      <c r="L33" s="87">
+      <c r="L33" s="45">
         <v>53.97</v>
       </c>
-      <c r="M33" s="79"/>
+      <c r="M33" s="92"/>
     </row>
     <row r="34" spans="10:13">
-      <c r="J34" s="86">
+      <c r="J34" s="44">
         <v>80</v>
       </c>
-      <c r="K34" s="87">
+      <c r="K34" s="45">
         <v>640.65</v>
       </c>
-      <c r="L34" s="87">
+      <c r="L34" s="45">
         <v>59.92</v>
       </c>
-      <c r="M34" s="79"/>
+      <c r="M34" s="92"/>
     </row>
     <row r="35" spans="10:13">
-      <c r="J35" s="86">
+      <c r="J35" s="44">
         <v>85</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K35" s="45">
         <v>707.7</v>
       </c>
-      <c r="L35" s="87">
+      <c r="L35" s="45">
         <v>67.05</v>
       </c>
-      <c r="M35" s="79"/>
+      <c r="M35" s="92"/>
     </row>
     <row r="36" spans="10:13">
-      <c r="J36" s="88">
+      <c r="J36" s="46">
         <v>90</v>
       </c>
-      <c r="K36" s="89">
+      <c r="K36" s="47">
         <v>807.92</v>
       </c>
-      <c r="L36" s="89">
+      <c r="L36" s="47">
         <v>100.22</v>
       </c>
-      <c r="M36" s="80" t="s">
+      <c r="M36" s="93" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="10:13">
-      <c r="J37" s="88">
+      <c r="J37" s="46">
         <v>95</v>
       </c>
-      <c r="K37" s="89">
+      <c r="K37" s="47">
         <v>963.66</v>
       </c>
-      <c r="L37" s="89">
+      <c r="L37" s="47">
         <v>155.74</v>
       </c>
-      <c r="M37" s="80"/>
+      <c r="M37" s="93"/>
     </row>
     <row r="38" spans="10:13">
-      <c r="J38" s="88">
+      <c r="J38" s="46">
         <v>96</v>
       </c>
-      <c r="K38" s="89">
+      <c r="K38" s="47">
         <v>1012.39</v>
       </c>
-      <c r="L38" s="89">
+      <c r="L38" s="47">
         <v>48.73</v>
       </c>
-      <c r="M38" s="80"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" spans="10:13">
-      <c r="J39" s="88">
+      <c r="J39" s="46">
         <v>96.5</v>
       </c>
-      <c r="K39" s="89">
+      <c r="K39" s="47">
         <v>1048.06185</v>
       </c>
-      <c r="L39" s="89">
+      <c r="L39" s="47">
         <v>35.671849999999999</v>
       </c>
-      <c r="M39" s="80"/>
+      <c r="M39" s="93"/>
     </row>
     <row r="40" spans="10:13">
-      <c r="J40" s="88">
+      <c r="J40" s="46">
         <v>97</v>
       </c>
-      <c r="K40" s="89">
+      <c r="K40" s="47">
         <v>1085.78</v>
       </c>
-      <c r="L40" s="89">
+      <c r="L40" s="47">
         <v>37.718150000000001</v>
       </c>
-      <c r="M40" s="80"/>
+      <c r="M40" s="93"/>
     </row>
     <row r="41" spans="10:13">
-      <c r="J41" s="88">
+      <c r="J41" s="46">
         <v>97.5</v>
       </c>
-      <c r="K41" s="89">
+      <c r="K41" s="47">
         <v>1115.5999999999999</v>
       </c>
-      <c r="L41" s="89">
+      <c r="L41" s="47">
         <v>29.82</v>
       </c>
-      <c r="M41" s="80"/>
+      <c r="M41" s="93"/>
     </row>
     <row r="42" spans="10:13">
-      <c r="J42" s="88">
+      <c r="J42" s="46">
         <v>98</v>
       </c>
-      <c r="K42" s="89">
+      <c r="K42" s="47">
         <v>1153.67</v>
       </c>
-      <c r="L42" s="89">
+      <c r="L42" s="47">
         <v>38.07</v>
       </c>
-      <c r="M42" s="80"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="10:13">
-      <c r="J43" s="88">
+      <c r="J43" s="46">
         <v>98.5</v>
       </c>
-      <c r="K43" s="89">
+      <c r="K43" s="47">
         <v>1185.37095</v>
       </c>
-      <c r="L43" s="89">
+      <c r="L43" s="47">
         <v>31.700949999999999</v>
       </c>
-      <c r="M43" s="80"/>
+      <c r="M43" s="93"/>
     </row>
     <row r="44" spans="10:13">
-      <c r="J44" s="88">
+      <c r="J44" s="46">
         <v>99</v>
       </c>
-      <c r="K44" s="89">
+      <c r="K44" s="47">
         <v>1221.5</v>
       </c>
-      <c r="L44" s="89">
+      <c r="L44" s="47">
         <v>36.129049999999999</v>
       </c>
-      <c r="M44" s="80"/>
+      <c r="M44" s="93"/>
     </row>
     <row r="45" spans="10:13">
-      <c r="J45" s="88">
+      <c r="J45" s="46">
         <v>99.5</v>
       </c>
-      <c r="K45" s="89">
+      <c r="K45" s="47">
         <v>1266.3900000000001</v>
       </c>
-      <c r="L45" s="89">
+      <c r="L45" s="47">
         <v>44.89</v>
       </c>
-      <c r="M45" s="80"/>
+      <c r="M45" s="93"/>
     </row>
     <row r="46" spans="10:13">
-      <c r="J46" s="90">
+      <c r="J46" s="48">
         <v>100</v>
       </c>
-      <c r="K46" s="91">
+      <c r="K46" s="49">
         <v>1719.83</v>
       </c>
-      <c r="L46" s="91">
+      <c r="L46" s="49">
         <v>453.44</v>
       </c>
-      <c r="M46" s="81"/>
+      <c r="M46" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
     <mergeCell ref="M19:M29"/>
     <mergeCell ref="M30:M35"/>
     <mergeCell ref="M36:M46"/>
@@ -15073,8 +15065,6 @@
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="I9:O13"/>
     <mergeCell ref="J15:M16"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15085,7 +15075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9:O10"/>
     </sheetView>
   </sheetViews>
@@ -15095,199 +15085,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="I2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="28"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="28"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="28"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="53" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="52" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="52" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="52" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="52" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="54" t="s">
         <v>128</v>
       </c>
     </row>
@@ -15319,7 +15309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
@@ -15329,62 +15319,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="I1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
